--- a/WebprogramozásBeadandóHtmlCssBootstrap.xlsx
+++ b/WebprogramozásBeadandóHtmlCssBootstrap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\t_Szab.Eman\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dacsef.roland\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A90ACAE-A0E2-4765-8897-70EB9E23ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C29ACD-2F7C-4E9A-B7BE-442E797A4586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>Neved:</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>Minden értékre (szín, méret) használj változókat.</t>
+  </si>
+  <si>
+    <t>Dacsef Roland, Ungvári Zsolt</t>
+  </si>
+  <si>
+    <t>dacsef.roland@ckik.hu , ungvari.zsolt@ckik.hu</t>
   </si>
 </sst>
 </file>
@@ -1197,6 +1203,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1220,12 +1232,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,27 +1306,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D2" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1328,7 +1334,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1336,95 +1342,95 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D27" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D28" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D29" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D29" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D30" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D31" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D32" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D33" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D34" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D36" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D36" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D37" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D37" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D38" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D38" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D39" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D39" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1432,7 +1438,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1476,7 +1482,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1520,7 +1526,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1564,7 +1570,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1596,11 +1602,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8585,8 +8591,8 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:J464"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="B13:D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8605,15 +8611,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
@@ -8622,12 +8628,14 @@
       <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="C2" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
     </row>
@@ -8636,12 +8644,14 @@
       <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="C3" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
@@ -8650,7 +8660,7 @@
       <c r="B4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="92"/>
       <c r="E4" s="92"/>
       <c r="F4" s="92"/>
@@ -8728,10 +8738,10 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="78">
         <f>SUM(Irányelvek!G:G)</f>
         <v>80</v>
@@ -8747,10 +8757,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="79">
         <v>20</v>
       </c>
@@ -8763,10 +8773,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="90"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="78">
         <v>20</v>
       </c>
@@ -8779,10 +8789,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="90"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="78">
         <v>40</v>
       </c>
@@ -8821,13 +8831,13 @@
     </row>
     <row r="16" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="90"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="30" t="b">
         <f t="array" ref="D16">IF(COUNTIFS(Irányelvek!D2:D39,"=hamis",Irányelvek!F2:F39,"=Igaz")=0,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -8838,18 +8848,18 @@
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="33">
         <f>SUM(Irányelvek!H2:H39)</f>
-        <v>-36</v>
+        <v>80</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="97" t="str">
         <f>VLOOKUP(D20,Ponthatárok!$C$3:$D$7,2,TRUE)</f>
-        <v>Elégtelen (1)</v>
+        <v>Jeles (5)</v>
       </c>
       <c r="G17" s="97"/>
       <c r="H17" s="97"/>
@@ -8864,7 +8874,7 @@
       <c r="C18" s="96"/>
       <c r="D18" s="36">
         <f>IF(D17&gt;D11,VLOOKUP(SUM(Irányelvek!J2:J39),Ponthatárok!G2:H12,2,TRUE),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="97"/>
@@ -8875,10 +8885,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="90"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="80">
         <v>40</v>
       </c>
@@ -8891,21 +8901,21 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="90"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="33">
         <f>SUM(D17:D19)</f>
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="85" t="str">
+      <c r="F20" s="87" t="str">
         <f>CONCATENATE("Az önértékelés alapján ",VLOOKUP(D20,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
-        <v>Az önértékelés alapján Elégtelen (1)  érdemjegyet kapnál rá.</v>
-      </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
+        <v>Az önértékelés alapján Jeles (5)  érdemjegyet kapnál rá.</v>
+      </c>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
     </row>
@@ -9356,6 +9366,8 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Pt2r10NfCQvSDRx8qMjGYxYpEYBoOyIK56jWLg5u88pMtB0yZv+L45h/PZkvP5rgD0XQukcG0FY9SUv/PUWVng==" saltValue="OS0FMTO/1nXUT8EsxtE52w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
+    <mergeCell ref="F17:H19"/>
+    <mergeCell ref="F10:H14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B1:H1"/>
@@ -9372,8 +9384,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F17:H19"/>
-    <mergeCell ref="F10:H14"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:D20">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -9394,9 +9404,9 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9456,7 +9466,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="38" t="b">
         <v>1</v>
@@ -9469,7 +9479,7 @@
       </c>
       <c r="H2" s="39">
         <f>IF(D2=TRUE,G2,IF(F2=TRUE,-2,""))</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="40">
         <f>IF(E2=TRUE,G2,IF(F2=TRUE,-2,""))</f>
@@ -9477,7 +9487,7 @@
       </c>
       <c r="J2" s="41">
         <f>IF(H2=I2,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9491,7 +9501,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="16" t="b">
         <v>1</v>
@@ -9500,9 +9510,9 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="13" t="str">
+      <c r="H3" s="13">
         <f t="shared" ref="H3:H39" si="0">IF(D3=TRUE,G3,IF(F3=TRUE,-2,""))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I3" s="14">
         <f t="shared" ref="I3:I39" si="1">IF(E3=TRUE,G3,IF(F3=TRUE,-2,""))</f>
@@ -9510,7 +9520,7 @@
       </c>
       <c r="J3" s="42">
         <f t="shared" ref="J3:J39" si="2">IF(H3=I3,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -9524,7 +9534,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="17" t="b">
         <v>1</v>
@@ -9537,7 +9547,7 @@
       </c>
       <c r="H4" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="14">
         <f t="shared" si="1"/>
@@ -9545,7 +9555,7 @@
       </c>
       <c r="J4" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6"/>
     </row>
@@ -9560,7 +9570,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="17" t="b">
         <v>1</v>
@@ -9573,7 +9583,7 @@
       </c>
       <c r="H5" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
@@ -9581,7 +9591,7 @@
       </c>
       <c r="J5" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7"/>
     </row>
@@ -9596,7 +9606,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="17" t="b">
         <v>1</v>
@@ -9609,7 +9619,7 @@
       </c>
       <c r="H6" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="1"/>
@@ -9617,7 +9627,7 @@
       </c>
       <c r="J6" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9631,7 +9641,7 @@
         <v>70</v>
       </c>
       <c r="D7" s="44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="45" t="b">
         <v>1</v>
@@ -9644,7 +9654,7 @@
       </c>
       <c r="H7" s="47">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I7" s="48">
         <f t="shared" si="1"/>
@@ -9652,7 +9662,7 @@
       </c>
       <c r="J7" s="49">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9666,7 +9676,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="57" t="b">
         <v>1</v>
@@ -9675,9 +9685,9 @@
       <c r="G8" s="39">
         <v>1</v>
       </c>
-      <c r="H8" s="39" t="str">
+      <c r="H8" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I8" s="40">
         <f t="shared" si="1"/>
@@ -9685,7 +9695,7 @@
       </c>
       <c r="J8" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9699,7 +9709,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="17" t="b">
         <v>1</v>
@@ -9708,9 +9718,9 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="13" t="str">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I9" s="14">
         <f t="shared" si="1"/>
@@ -9718,7 +9728,7 @@
       </c>
       <c r="J9" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9732,7 +9742,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="17" t="b">
         <v>1</v>
@@ -9745,7 +9755,7 @@
       </c>
       <c r="H10" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I10" s="14">
         <f t="shared" si="1"/>
@@ -9753,7 +9763,7 @@
       </c>
       <c r="J10" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9767,7 +9777,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="17" t="b">
         <v>1</v>
@@ -9780,7 +9790,7 @@
       </c>
       <c r="H11" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I11" s="14">
         <f t="shared" si="1"/>
@@ -9788,7 +9798,7 @@
       </c>
       <c r="J11" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9802,7 +9812,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="17" t="b">
         <v>1</v>
@@ -9811,9 +9821,9 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="13" t="str">
+      <c r="H12" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
@@ -9821,7 +9831,7 @@
       </c>
       <c r="J12" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9835,7 +9845,7 @@
         <v>71</v>
       </c>
       <c r="D13" s="21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="19" t="b">
         <v>1</v>
@@ -9848,7 +9858,7 @@
       </c>
       <c r="H13" s="61">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I13" s="62">
         <f t="shared" si="1"/>
@@ -9856,7 +9866,7 @@
       </c>
       <c r="J13" s="63">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -9870,7 +9880,7 @@
         <v>74</v>
       </c>
       <c r="D14" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="57" t="b">
         <v>1</v>
@@ -9883,7 +9893,7 @@
       </c>
       <c r="H14" s="39">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I14" s="40">
         <f t="shared" si="1"/>
@@ -9891,7 +9901,7 @@
       </c>
       <c r="J14" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9905,7 +9915,7 @@
         <v>75</v>
       </c>
       <c r="D15" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="17" t="b">
         <v>1</v>
@@ -9918,7 +9928,7 @@
       </c>
       <c r="H15" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="14">
         <f t="shared" si="1"/>
@@ -9926,7 +9936,7 @@
       </c>
       <c r="J15" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -9975,7 +9985,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="17" t="b">
         <v>1</v>
@@ -9988,7 +9998,7 @@
       </c>
       <c r="H17" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="14">
         <f t="shared" si="1"/>
@@ -9996,7 +10006,7 @@
       </c>
       <c r="J17" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10045,7 +10055,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="57" t="b">
         <v>1</v>
@@ -10054,9 +10064,9 @@
       <c r="G19" s="39">
         <v>1</v>
       </c>
-      <c r="H19" s="39" t="str">
+      <c r="H19" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I19" s="40">
         <f t="shared" si="1"/>
@@ -10064,7 +10074,7 @@
       </c>
       <c r="J19" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -10078,7 +10088,7 @@
         <v>42</v>
       </c>
       <c r="D20" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="17" t="b">
         <v>1</v>
@@ -10087,9 +10097,9 @@
       <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="13" t="str">
+      <c r="H20" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I20" s="14">
         <f t="shared" si="1"/>
@@ -10097,7 +10107,7 @@
       </c>
       <c r="J20" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10111,7 +10121,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="17" t="b">
         <v>1</v>
@@ -10120,9 +10130,9 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="13" t="str">
+      <c r="H21" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I21" s="14">
         <f t="shared" si="1"/>
@@ -10130,7 +10140,7 @@
       </c>
       <c r="J21" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -10144,7 +10154,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="17" t="b">
         <v>1</v>
@@ -10153,9 +10163,9 @@
       <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="13" t="str">
+      <c r="H22" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I22" s="14">
         <f t="shared" si="1"/>
@@ -10163,7 +10173,7 @@
       </c>
       <c r="J22" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10177,7 +10187,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="17" t="b">
         <v>1</v>
@@ -10186,9 +10196,9 @@
       <c r="G23" s="2">
         <v>1</v>
       </c>
-      <c r="H23" s="13" t="str">
+      <c r="H23" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I23" s="14">
         <f t="shared" si="1"/>
@@ -10196,7 +10206,7 @@
       </c>
       <c r="J23" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10210,7 +10220,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="17" t="b">
         <v>1</v>
@@ -10219,9 +10229,9 @@
       <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="13" t="str">
+      <c r="H24" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I24" s="14">
         <f t="shared" si="1"/>
@@ -10229,7 +10239,7 @@
       </c>
       <c r="J24" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -10243,7 +10253,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="17" t="b">
         <v>1</v>
@@ -10252,9 +10262,9 @@
       <c r="G25" s="2">
         <v>1</v>
       </c>
-      <c r="H25" s="13" t="str">
+      <c r="H25" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I25" s="14">
         <f t="shared" si="1"/>
@@ -10262,7 +10272,7 @@
       </c>
       <c r="J25" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10276,7 +10286,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="19" t="b">
         <v>1</v>
@@ -10289,7 +10299,7 @@
       </c>
       <c r="H26" s="61">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I26" s="62">
         <f t="shared" si="1"/>
@@ -10297,7 +10307,7 @@
       </c>
       <c r="J26" s="63">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10311,7 +10321,7 @@
         <v>72</v>
       </c>
       <c r="D27" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="57" t="b">
         <v>1</v>
@@ -10324,7 +10334,7 @@
       </c>
       <c r="H27" s="39">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="I27" s="40">
         <f t="shared" si="1"/>
@@ -10332,7 +10342,7 @@
       </c>
       <c r="J27" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10346,7 +10356,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="17" t="b">
         <v>1</v>
@@ -10355,9 +10365,9 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="13" t="str">
+      <c r="H28" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I28" s="14">
         <f t="shared" si="1"/>
@@ -10365,7 +10375,7 @@
       </c>
       <c r="J28" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10379,7 +10389,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="17" t="b">
         <v>1</v>
@@ -10388,9 +10398,9 @@
       <c r="G29" s="2">
         <v>1</v>
       </c>
-      <c r="H29" s="13" t="str">
+      <c r="H29" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I29" s="14">
         <f t="shared" si="1"/>
@@ -10398,7 +10408,7 @@
       </c>
       <c r="J29" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10412,7 +10422,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="45" t="b">
         <v>1</v>
@@ -10425,7 +10435,7 @@
       </c>
       <c r="H30" s="47">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I30" s="48">
         <f t="shared" si="1"/>
@@ -10433,7 +10443,7 @@
       </c>
       <c r="J30" s="49">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10447,7 +10457,7 @@
         <v>43</v>
       </c>
       <c r="D31" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="57" t="b">
         <v>1</v>
@@ -10460,7 +10470,7 @@
       </c>
       <c r="H31" s="39">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I31" s="40">
         <f t="shared" si="1"/>
@@ -10468,7 +10478,7 @@
       </c>
       <c r="J31" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10482,7 +10492,7 @@
         <v>44</v>
       </c>
       <c r="D32" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="17" t="b">
         <v>1</v>
@@ -10491,9 +10501,9 @@
       <c r="G32" s="2">
         <v>1</v>
       </c>
-      <c r="H32" s="13" t="str">
+      <c r="H32" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I32" s="14">
         <f t="shared" si="1"/>
@@ -10501,7 +10511,7 @@
       </c>
       <c r="J32" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10515,7 +10525,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="17" t="b">
         <v>1</v>
@@ -10528,7 +10538,7 @@
       </c>
       <c r="H33" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I33" s="14">
         <f t="shared" si="1"/>
@@ -10536,7 +10546,7 @@
       </c>
       <c r="J33" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10550,7 +10560,7 @@
         <v>49</v>
       </c>
       <c r="D34" s="59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="45" t="b">
         <v>1</v>
@@ -10559,9 +10569,9 @@
       <c r="G34" s="46">
         <v>2</v>
       </c>
-      <c r="H34" s="47" t="str">
+      <c r="H34" s="47">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I34" s="48">
         <f t="shared" si="1"/>
@@ -10569,7 +10579,7 @@
       </c>
       <c r="J34" s="49">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10583,7 +10593,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="57" t="b">
         <v>1</v>
@@ -10596,7 +10606,7 @@
       </c>
       <c r="H35" s="39">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="40">
         <f t="shared" si="1"/>
@@ -10604,7 +10614,7 @@
       </c>
       <c r="J35" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10618,7 +10628,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="17" t="b">
         <v>1</v>
@@ -10631,7 +10641,7 @@
       </c>
       <c r="H36" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I36" s="14">
         <f t="shared" si="1"/>
@@ -10639,7 +10649,7 @@
       </c>
       <c r="J36" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10653,7 +10663,7 @@
         <v>48</v>
       </c>
       <c r="D37" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="17" t="b">
         <v>1</v>
@@ -10666,7 +10676,7 @@
       </c>
       <c r="H37" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I37" s="14">
         <f t="shared" si="1"/>
@@ -10674,7 +10684,7 @@
       </c>
       <c r="J37" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10688,7 +10698,7 @@
         <v>47</v>
       </c>
       <c r="D38" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="17" t="b">
         <v>1</v>
@@ -10701,7 +10711,7 @@
       </c>
       <c r="H38" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I38" s="14">
         <f t="shared" si="1"/>
@@ -10709,7 +10719,7 @@
       </c>
       <c r="J38" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10723,7 +10733,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="45" t="b">
         <v>1</v>
@@ -10736,7 +10746,7 @@
       </c>
       <c r="H39" s="47">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I39" s="48">
         <f t="shared" si="1"/>
@@ -10744,7 +10754,7 @@
       </c>
       <c r="J39" s="49">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12450,7 +12460,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WebprogramozásBeadandóHtmlCssBootstrap.xlsx
+++ b/WebprogramozásBeadandóHtmlCssBootstrap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dacsef.roland\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WEB P\civilizacio v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C29ACD-2F7C-4E9A-B7BE-442E797A4586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC7988E-E175-48BD-A83F-306CC1B0164F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t>Neved:</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>dacsef.roland@ckik.hu , ungvari.zsolt@ckik.hu</t>
+  </si>
+  <si>
+    <t>Eltünt civilizációk</t>
   </si>
 </sst>
 </file>
@@ -1203,6 +1206,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1251,13 +1261,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -8591,7 +8594,7 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:J464"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
@@ -8611,15 +8614,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
@@ -8628,14 +8631,14 @@
       <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
     </row>
@@ -8644,14 +8647,14 @@
       <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
@@ -8660,12 +8663,14 @@
       <c r="B4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
+      <c r="C4" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
     </row>
@@ -8683,30 +8688,30 @@
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
-      <c r="B7" s="94" t="str">
+      <c r="B7" s="97" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D11," pontot el kell érni. A tanulói és tanári értékelés tekintetében, maximum 10 darab irányelvben lehet eltérés.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 20 pontot el kell érni. A tanulói és tanári értékelés tekintetében, maximum 10 darab irányelvben lehet eltérés.</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
     </row>
@@ -8738,68 +8743,68 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="78">
         <f>SUM(Irányelvek!G:G)</f>
         <v>80</v>
       </c>
       <c r="E10" s="31"/>
-      <c r="F10" s="98" t="s">
+      <c r="F10" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="79">
         <v>20</v>
       </c>
       <c r="E11" s="31"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="82"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="78">
         <v>20</v>
       </c>
       <c r="E12" s="31"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="78">
         <v>40</v>
       </c>
       <c r="E13" s="31"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
     </row>
@@ -8809,9 +8814,9 @@
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
@@ -8831,10 +8836,10 @@
     </row>
     <row r="16" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="30" t="b">
         <f t="array" ref="D16">IF(COUNTIFS(Irányelvek!D2:D39,"=hamis",Irányelvek!F2:F39,"=Igaz")=0,TRUE,FALSE)</f>
         <v>1</v>
@@ -8848,74 +8853,74 @@
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="33">
         <f>SUM(Irányelvek!H2:H39)</f>
         <v>80</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="97" t="str">
+      <c r="F17" s="81" t="str">
         <f>VLOOKUP(D20,Ponthatárok!$C$3:$D$7,2,TRUE)</f>
         <v>Jeles (5)</v>
       </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="96"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="36">
         <f>IF(D17&gt;D11,VLOOKUP(SUM(Irányelvek!J2:J39),Ponthatárok!G2:H12,2,TRUE),0)</f>
         <v>20</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="82"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="80">
         <v>40</v>
       </c>
       <c r="E19" s="31"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="82"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="33">
         <f>SUM(D17:D19)</f>
         <v>140</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="87" t="str">
+      <c r="F20" s="90" t="str">
         <f>CONCATENATE("Az önértékelés alapján ",VLOOKUP(D20,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
         <v>Az önértékelés alapján Jeles (5)  érdemjegyet kapnál rá.</v>
       </c>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
     </row>
@@ -9366,12 +9371,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Pt2r10NfCQvSDRx8qMjGYxYpEYBoOyIK56jWLg5u88pMtB0yZv+L45h/PZkvP5rgD0XQukcG0FY9SUv/PUWVng==" saltValue="OS0FMTO/1nXUT8EsxtE52w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
-    <mergeCell ref="F17:H19"/>
-    <mergeCell ref="F10:H14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -9384,6 +9383,12 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F17:H19"/>
+    <mergeCell ref="F10:H14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:D20">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -9404,7 +9409,7 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
